--- a/data/trans_dic/P16B10-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B10-Edad-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B10-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B10-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,12 +632,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -652,27 +652,27 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -685,12 +685,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -705,27 +705,27 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,07%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,84%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>73,58; 100</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>79,25; 100</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,87%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,71%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>30,82; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>73,58; 100</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>54,94; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>87,39; 100</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>79,25; 100</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>85,49; 100</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>85,49; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>90,01; 100</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>87,39; 100</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>86,51; 100</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>92,94; 100</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>90,51; 100</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,96</t>
+          <t>94,04; 100</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,6%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,18%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>84,94; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>94,7; 100</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>95,75; 100</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>92,07; 100</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>92,94; 100</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>85,49; 100</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>90,64; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,09</t>
+          <t>96,91; 100</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>96,64; 100</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,22%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,25%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,6%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,21%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,25%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,58</t>
+          <t>95,67; 100,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,73</t>
+          <t>98,27; 100</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,42</t>
+          <t>98,58; 100</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,64</t>
+          <t>90,92; 99,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>98,35; 100</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,6</t>
+          <t>95,7; 100,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,81</t>
+          <t>95,55; 99,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,85</t>
+          <t>99,15; 100</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>97,54; 100,0</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,44%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,77%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,9%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,63%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,47%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,05</t>
+          <t>95,86; 99,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,16</t>
+          <t>98,84; 100</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,95</t>
+          <t>99,05; 100</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,19</t>
+          <t>91,87; 98,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,2</t>
+          <t>98,8; 100</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,21</t>
+          <t>96,56; 100,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>95,56; 98,99</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>99,41; 100</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>98,38; 100,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B10-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B10-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1062,7 +1062,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1172,7 +1172,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>99,22%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>97,25%</t>
+          <t>98,09%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1207,12 +1207,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>98,6%</t>
+          <t>95,98%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,21%</t>
+          <t>99,06%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>99,25%</t>
+          <t>98,25%</t>
         </is>
       </c>
     </row>
@@ -1235,54 +1235,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>95,67; 100,0</t>
+          <t>96,46; 100</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>98,27; 100</t>
+          <t>95,75; 100</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>98,58; 100</t>
+          <t>97,05; 100</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>90,92; 99,22</t>
+          <t>90,43; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>98,35; 100</t>
+          <t>94,84; 100</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>95,7; 100,0</t>
+          <t>87,84; 100,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>95,55; 99,6</t>
+          <t>95,28; 100,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>99,15; 100</t>
+          <t>97,64; 100</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>97,54; 100,0</t>
+          <t>94,44; 100,0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>98,44%</t>
+          <t>98,6%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>96,77%</t>
+          <t>96,67%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1317,12 +1317,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>98,9%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>97,63%</t>
+          <t>97,58%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>99,47%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1345,59 +1345,169 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>88,9; 100,0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>97,14; 100</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>97,3; 100</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>88,75; 100,0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>97,61; 100</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>97,34; 100</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>93,03; 99,34</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>98,69; 100</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>98,65; 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>98,44%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>96,77%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>98,9%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>97,63%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>99,47%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>95,86; 99,56</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>98,84; 100</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>99,05; 100</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>91,87; 98,72</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>98,8; 100</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>96,56; 100,0</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>95,56; 98,99</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>99,41; 100</t>
         </is>
       </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>98,38; 100,0</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1408,6 +1518,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P16B10-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B10-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -920,7 +921,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>30,82; 100,0</t>
+          <t>27,72; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -935,7 +936,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>54,94; 100,0</t>
+          <t>49,22; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1125,7 +1126,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>84,94; 100,0</t>
+          <t>86,14; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1155,7 +1156,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>90,64; 100,0</t>
+          <t>89,94; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1250,7 +1251,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>90,43; 100,0</t>
+          <t>90,37; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1265,7 +1266,7 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>95,28; 100,0</t>
+          <t>94,87; 100,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1275,7 +1276,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>94,44; 100,0</t>
+          <t>93,25; 100,0</t>
         </is>
       </c>
     </row>
@@ -1345,7 +1346,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>88,9; 100,0</t>
+          <t>92,97; 100,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1360,7 +1361,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>88,75; 100,0</t>
+          <t>88,59; 100,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1375,7 +1376,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>93,03; 99,34</t>
+          <t>93,27; 99,34</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1455,7 +1456,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>95,86; 99,56</t>
+          <t>96,07; 99,56</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1470,7 +1471,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>91,87; 98,72</t>
+          <t>92,95; 98,88</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1480,12 +1481,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>96,56; 100,0</t>
+          <t>96,27; 100,0</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>95,56; 98,99</t>
+          <t>95,59; 98,94</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1495,7 +1496,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>98,38; 100,0</t>
+          <t>98,15; 100,0</t>
         </is>
       </c>
     </row>
@@ -1523,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos medicamentos para el corazón fueron recetados por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>960</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>992</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1952</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>188; 821</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>219; 960</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>227; 992</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>229; 1001</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>188; 821</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>841; 1952</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>229; 1001</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2073</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2409</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>980</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>5775</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1915</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3008</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>8184</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>214; 935</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>893; 2073</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1038; 2409</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1847</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>214; 935</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>4249; 5775</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2782</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1672; 3008</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>6486; 8184</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>4616</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4947</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1951</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4704</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>9831</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>5671</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>9321</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>14778</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>7622</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3205; 4616</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3434; 4947</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>840; 1951</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1633; 5890</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7989; 9831</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4173; 5671</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5172; 10507</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>12915; 14778</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6040; 7622</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>12816</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>13605</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>19545</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>14534</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>7552</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>13569</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>27350</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>21157</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>33113</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>10957; 12816</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>11632; 13605</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>17593; 19545</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>12702; 14534</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>5796; 7552</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>11739; 13569</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>25420; 27350</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>19148; 21157</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>31139; 33113</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>40062</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>36102</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>50835</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>23591</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>27061</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>13254</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>63653</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>63164</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>64089</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>36099; 41906</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>34188; 36102</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>48676; 50835</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>21721; 23591</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>25152; 27061</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>11331; 13254</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>58910; 65497</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>61214; 63164</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>61938; 64089</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>50582</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>46387</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>65890</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>47918</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>36955</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>48638</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>98500</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>83342</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>114528</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>48790; 50582</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>44417; 46387</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>63949; 65890</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>44145; 48851</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>35048; 36955</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>44512; 50675</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>94334; 99433</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>81371; 83342</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>108695; 116565</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>62984</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>74548</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>59778</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>69221</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>87133</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>95154</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>132206</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>161681</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>154932</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>59391; 63880</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>72418; 74548</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>58166; 59778</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>63439; 71607</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>85047; 87133</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>92623; 95154</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>126366; 134598</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>159557; 161681</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>152839; 154932</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>172817</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>178622</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>200408</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>160949</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>170460</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>183062</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>333765</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>349083</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>383469</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>168664; 174792</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>176558; 178622</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>198495; 200408</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>154600; 164461</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>168416; 170460</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>178204; 185099</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>326786; 338266</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>347021; 349083</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>378372; 385506</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>